--- a/biology/Botanique/Saribus_jeanneneyi/Saribus_jeanneneyi.xlsx
+++ b/biology/Botanique/Saribus_jeanneneyi/Saribus_jeanneneyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Saribus jeanneneyi est une espèce de plantes de la famille des Arécacées. Ce palmier est originaire du Sud-Ouest de la Nouvelle-Calédonie où il pousse à 200 m d'altitude sur des pentes raides au sol constitué de serpentine. En 1998 il est ajouté à la liste rouge de l'UICN qui l'estime en danger critique d'extinction[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saribus jeanneneyi est une espèce de plantes de la famille des Arécacées. Ce palmier est originaire du Sud-Ouest de la Nouvelle-Calédonie où il pousse à 200 m d'altitude sur des pentes raides au sol constitué de serpentine. En 1998 il est ajouté à la liste rouge de l'UICN qui l'estime en danger critique d'extinction.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite en 1910 par le botaniste italien Odoardo Beccari (1843-1920) sous le basionyme de Pritchardiopsis jeanneneyi. En classification classique de Cronquist (1981)[3] il est assigné à la famille des Palmae, dans le genre monospécifique Pritchardiopsis Becc. 1910. L'espèce a ensuite été recombinée en 2011 par Christine D. Bacon et William John Baker (1972-) dans le genre Saribus qui en classification phylogénétique APG III (2009)[4] fait partie de la famille des Arecaceae, ceci à la faveur de la réhabilitation de Saribus dont les espèces ont été un temps été classées avec celles du genre Livistona[1].
-L'épithète spécifique jeanneneyi signifie « de Jeanneney », en hommage à M. Jeanneney qui a récolté les spécimens types à Prony en Nouvelle-Calédonie[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 1910 par le botaniste italien Odoardo Beccari (1843-1920) sous le basionyme de Pritchardiopsis jeanneneyi. En classification classique de Cronquist (1981) il est assigné à la famille des Palmae, dans le genre monospécifique Pritchardiopsis Becc. 1910. L'espèce a ensuite été recombinée en 2011 par Christine D. Bacon et William John Baker (1972-) dans le genre Saribus qui en classification phylogénétique APG III (2009) fait partie de la famille des Arecaceae, ceci à la faveur de la réhabilitation de Saribus dont les espèces ont été un temps été classées avec celles du genre Livistona.
+L'épithète spécifique jeanneneyi signifie « de Jeanneney », en hommage à M. Jeanneney qui a récolté les spécimens types à Prony en Nouvelle-Calédonie.
 </t>
         </is>
       </c>
